--- a/admin/admin/assets/files/default files/house_allocation.xlsx
+++ b/admin/admin/assets/files/default files/house_allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shsdesk\admin\admin\assets\files\default files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B154481-55F9-4B4F-A7EA-8B74E20710E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4EB38B-180B-449D-A052-632DE08EAD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="house_allocation" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,8 +521,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -877,39 +878,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
